--- a/Anna Plots/Graph_6_Electricity_usage.xlsx
+++ b/Anna Plots/Graph_6_Electricity_usage.xlsx
@@ -5,20 +5,29 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\University UT\Year 4 Courses\STA313\Project data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\University UT\Year 4 Courses\STA313\STA313 Github\DataVisProject\Anna Plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2930DEC2-BA01-48A7-95F2-76E7DFEBB7CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FEB466-7101-43DD-BDD1-5F31C8D2AAD3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2099,8 +2108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BE265"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AE1" activeCellId="8" sqref="A1:A1048576 C1:C1048576 L1:L1048576 S1:S1048576 U1:U1048576 X1:X1048576 Z1:Z1048576 AB1:AB1048576 AE1:AE1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
